--- a/AGENTES.xlsx
+++ b/AGENTES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparedes\Documents\(B) CGAT\ZENDESK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparedes\PycharmProjects\AppZendesk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6178FB7-0B66-4D03-AC7B-2104A1A81399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C81CE9-453F-4A24-A9C1-8BE7E8667CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28110" windowHeight="14625" xr2:uid="{FE3F08CB-764E-404A-A8B6-BBA6ACF02357}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{FE3F08CB-764E-404A-A8B6-BBA6ACF02357}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>CARLA TOSSI</t>
   </si>
@@ -864,12 +864,6 @@
   </si>
   <si>
     <t>dbassaber@anid.cl</t>
-  </si>
-  <si>
-    <t>MATIAS CARCAMO</t>
-  </si>
-  <si>
-    <t>mcarcamo@anid.cl</t>
   </si>
   <si>
     <t>id</t>
@@ -1233,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37447F85-6596-497D-8574-1F6EF164BFC7}">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,13 +1240,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
         <v>278</v>
-      </c>
-      <c r="B1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2774,15 +2768,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>16326013188884</v>
-      </c>
-      <c r="B140" t="s">
-        <v>276</v>
-      </c>
-      <c r="C140" t="s">
-        <v>277</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
